--- a/ClientExcel/Game/Sound.xlsx
+++ b/ClientExcel/Game/Sound.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sound" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -41,6 +41,9 @@
     <t>AssetName</t>
   </si>
   <si>
+    <t>AssetId</t>
+  </si>
+  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
   </si>
   <si>
     <t>资源名称</t>
+  </si>
+  <si>
+    <t>资源编号</t>
   </si>
   <si>
     <t>优先级（默认0，128最高，-128最低）</t>
@@ -102,13 +108,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -573,139 +585,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,6 +782,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1027,18 +1049,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="9" width="17.25" customWidth="1"/>
+    <col min="1" max="10" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,8 +1074,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1087,7 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1079,64 +1102,73 @@
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1146,8 +1178,9 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1157,8 +1190,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1168,8 +1202,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1179,8 +1214,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1190,8 +1226,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1201,6 +1238,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClientExcel/Game/Sound.xlsx
+++ b/ClientExcel/Game/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sound" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>#</t>
   </si>
@@ -59,6 +59,9 @@
     <t>MaxDistance</t>
   </si>
   <si>
+    <t>SoundGroupId</t>
+  </si>
+  <si>
     <t>Int32</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
   </si>
   <si>
     <t>声音最大距离</t>
+  </si>
+  <si>
+    <t>声音组编号</t>
   </si>
 </sst>
 </file>
@@ -715,8 +721,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,196 +1058,208 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="10" width="17.25" customWidth="1"/>
+    <col min="1" max="10" width="17.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.75" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClientExcel/Game/Sound.xlsx
+++ b/ClientExcel/Game/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sound" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -44,6 +44,12 @@
     <t>AssetId</t>
   </si>
   <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>GroupId</t>
+  </si>
+  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -59,9 +65,6 @@
     <t>MaxDistance</t>
   </si>
   <si>
-    <t>SoundGroupId</t>
-  </si>
-  <si>
     <t>Int32</t>
   </si>
   <si>
@@ -86,6 +89,12 @@
     <t>资源编号</t>
   </si>
   <si>
+    <t>声音组名称</t>
+  </si>
+  <si>
+    <t>声音组编号</t>
+  </si>
+  <si>
     <t>优先级（默认0，128最高，-128最低）</t>
   </si>
   <si>
@@ -99,9 +108,6 @@
   </si>
   <si>
     <t>声音最大距离</t>
-  </si>
-  <si>
-    <t>声音组编号</t>
   </si>
 </sst>
 </file>
@@ -721,11 +727,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1058,208 +1061,134 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="10" width="17.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="12" width="17.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>11</v>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
